--- a/cicada_generator/lib/WHO/antigen/Meningococcal.xlsx
+++ b/cicada_generator/lib/WHO/antigen/Meningococcal.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="30">
   <si>
     <t xml:space="preserve">Series Name</t>
   </si>
@@ -72,9 +72,6 @@
   </si>
   <si>
     <t xml:space="preserve">9 months</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18 months</t>
   </si>
   <si>
     <t xml:space="preserve">Preferable Vaccine</t>
@@ -111,12 +108,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
+    <font/>
     <font/>
   </fonts>
   <fills count="2">
@@ -133,11 +131,13 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -475,8 +475,8 @@
       <c r="D9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>20</v>
+      <c r="E9" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>8</v>
@@ -490,56 +490,56 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="C10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G10" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G11" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>19</v>
@@ -550,10 +550,10 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>19</v>
@@ -564,10 +564,10 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>19</v>
@@ -578,13 +578,13 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>29</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>8</v>
@@ -592,7 +592,7 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>10</v>
